--- a/trajectory-generation/firstFourGates.xlsx
+++ b/trajectory-generation/firstFourGates.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luis\Documents\GitHub\alpha-pilot-champs\trajectory-generation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB2ADB2C-3C53-4DB8-932F-9DAB4A74E223}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38676A9D-CC4B-4BE0-A474-E2B0BFC74D2A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8964" xr2:uid="{377D5510-B097-4D1F-A05F-61E58D3D0FE7}"/>
+    <workbookView xWindow="2232" yWindow="564" windowWidth="17280" windowHeight="11796" xr2:uid="{377D5510-B097-4D1F-A05F-61E58D3D0FE7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -379,8 +379,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0845D077-0A98-45B8-9CF4-41D1382FDE23}">
   <dimension ref="A1:ACN5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:ACN5"/>
+    <sheetView tabSelected="1" topLeftCell="ABX1" workbookViewId="0">
+      <selection activeCell="ACK2" sqref="ACK2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2679,16 +2679,16 @@
         <v>-0.17423826094977377</v>
       </c>
       <c r="ACK1">
-        <v>415.53655773645204</v>
+        <v>4.9299999999999997E-2</v>
       </c>
       <c r="ACL1">
-        <v>1.5680859756299661</v>
+        <v>0.5</v>
       </c>
       <c r="ACM1">
-        <v>1.2228885789089332</v>
+        <v>0.5</v>
       </c>
       <c r="ACN1">
-        <v>49.48989883983802</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="2" spans="1:768" x14ac:dyDescent="0.3">
